--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2163.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2163.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.589325854499256</v>
+        <v>1.08464515209198</v>
       </c>
       <c r="B1">
-        <v>3.214970650453434</v>
+        <v>2.281284809112549</v>
       </c>
       <c r="C1">
-        <v>3.256863769710646</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9511397513909911</v>
+        <v>1.512775182723999</v>
       </c>
       <c r="E1">
-        <v>0.5825632316659208</v>
+        <v>0.9896021485328674</v>
       </c>
     </row>
   </sheetData>
